--- a/data/trans_camb/P3A_R-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>3.47024214003212</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.960266305852667</v>
+        <v>3.960266305852689</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>-2.980246713550649</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.213335310858161</v>
+        <v>-1.281248438136884</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>8.843492412281938</v>
+        <v>8.973273197465776</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17.41130635130737</v>
+        <v>17.14858380425128</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-3.604114688313272</v>
+        <v>-3.38149480521579</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.5524030563662897</v>
+        <v>0.5813926459221244</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.6242688153592304</v>
+        <v>0.5268827055895635</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.227151858365286</v>
+        <v>-6.065992751121766</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.432014041087767</v>
+        <v>1.372332250237692</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.561535481004873</v>
+        <v>6.946689251617605</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.92298144417464</v>
+        <v>8.602337249940677</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.54108280420006</v>
+        <v>18.89218270265411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>30.43738872883471</v>
+        <v>29.79475503790707</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.737650566819623</v>
+        <v>2.783510402854406</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.307228471948663</v>
+        <v>6.373113530193629</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.028542379345268</v>
+        <v>7.693837142549766</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2634642078406894</v>
+        <v>0.06100123848835864</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.550098145849052</v>
+        <v>7.199099136998917</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>13.80051088694384</v>
+        <v>14.06032458854928</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.03998214095369161</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0456279185328812</v>
+        <v>0.04562791853288145</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>-0.04376435031312804</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02970946202783311</v>
+        <v>-0.029170365128959</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2067101690588573</v>
+        <v>0.210857824025982</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.415993551913103</v>
+        <v>0.4125942606224608</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.04077058108183221</v>
+        <v>-0.0386329173925226</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.006226330338985029</v>
+        <v>0.006220598077872817</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.007149708507040496</v>
+        <v>0.006435519455030909</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08912810063498219</v>
+        <v>-0.08644039554874057</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.02025020926263512</v>
+        <v>0.01945760294885837</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.09516809205344047</v>
+        <v>0.09965693643918465</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.2512523782478166</v>
+        <v>0.2475017846265772</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.5461506271680825</v>
+        <v>0.5387292612012333</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8669558284104518</v>
+        <v>0.8377038288332647</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.03222522659757859</v>
+        <v>0.03287089817931013</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.074210705869644</v>
+        <v>0.07394573054314148</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.08255414206607094</v>
+        <v>0.09101076501916547</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.002807325976216172</v>
+        <v>0.0007252272357886585</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1141420376679524</v>
+        <v>0.1087529873656768</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.2078043198032098</v>
+        <v>0.2092760469017935</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>11.07611352896979</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>17.13872806658085</v>
+        <v>17.13872806658083</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>3.95053516527978</v>
+        <v>4.093983737155356</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>14.59371052004816</v>
+        <v>14.19022385810665</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23.82171845865891</v>
+        <v>23.85015205347002</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.564904197275927</v>
+        <v>-7.651689701904008</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.930965697800302</v>
+        <v>-1.966789390794118</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.4702358621809228</v>
+        <v>0.4484745475137605</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3198917365834112</v>
+        <v>0.3546122299577492</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>8.12517441709366</v>
+        <v>7.831515832605438</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>14.0858077514176</v>
+        <v>14.06902043455691</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.99935808393443</v>
+        <v>12.97806783986337</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>23.64738687419026</v>
+        <v>23.09781133727316</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>33.19967670829091</v>
+        <v>33.31821372303532</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.697836784504765</v>
+        <v>-1.504900642339154</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.632258670275864</v>
+        <v>3.499993873363397</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.357814025984087</v>
+        <v>5.505272326378145</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.342673333920974</v>
+        <v>6.455223684250683</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.07674466683211</v>
+        <v>13.89092653547741</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>19.72288105221695</v>
+        <v>20.03610292521691</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.1813217198246644</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2805698623900555</v>
+        <v>0.2805698623900552</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1112936840402187</v>
+        <v>0.1110513650342895</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4000955378050302</v>
+        <v>0.3885482343975944</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.6600055035764217</v>
+        <v>0.6478739828348488</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.08462098029904078</v>
+        <v>-0.08491059888537006</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02166841113344358</v>
+        <v>-0.02184788868935537</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005318693836806359</v>
+        <v>0.004994064970999544</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.005161835607545531</v>
+        <v>0.005677069506864111</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1290642492885856</v>
+        <v>0.1236860044186037</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2236133297929108</v>
+        <v>0.2246727877028452</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4143289116183672</v>
+        <v>0.398984577142932</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.742292293023848</v>
+        <v>0.7260936208995237</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.053755347816775</v>
+        <v>1.028009062306528</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.01920765657376096</v>
+        <v>-0.01685558632646623</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.04187247724399046</v>
+        <v>0.03995793749989991</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.061569416305888</v>
+        <v>0.06307299804574722</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1070679575662175</v>
+        <v>0.1074398420293815</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2355305835405133</v>
+        <v>0.232579625467676</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3313423927712614</v>
+        <v>0.3386920642270566</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>4.587114811032434</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>10.85184607126404</v>
+        <v>10.85184607126405</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>8.560582056614551</v>
@@ -1092,7 +1092,7 @@
         <v>14.35744217545535</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>22.63044543781852</v>
+        <v>22.63044543781853</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.058321221147274</v>
+        <v>7.910409115490862</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>17.6509735761472</v>
+        <v>18.17786655755862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27.83337626415477</v>
+        <v>27.29949649243591</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.322028146497835</v>
+        <v>-1.538748892262664</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9601254759997067</v>
+        <v>0.8985978905140209</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>7.837463774875681</v>
+        <v>7.628383947668252</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>5.456288968422758</v>
+        <v>5.372120462156045</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>11.01363608143781</v>
+        <v>11.24929273451104</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>19.49561941274774</v>
+        <v>19.96476228966525</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>16.99174616066232</v>
+        <v>16.99002582479857</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.70411868953786</v>
+        <v>26.66245706814623</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35.58074717477378</v>
+        <v>35.56770914211621</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.821058336322388</v>
+        <v>5.629879740838815</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>8.029943547415892</v>
+        <v>8.091129714483616</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>13.95790938169394</v>
+        <v>13.90000145977293</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.8932009522718</v>
+        <v>11.74924747760255</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>17.35427739600038</v>
+        <v>17.5608509902106</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>25.62383843717804</v>
+        <v>25.5669118067693</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.05722585796601139</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1353805665490642</v>
+        <v>0.1353805665490644</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.1563143043947032</v>
@@ -1197,7 +1197,7 @@
         <v>0.2621636673419165</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.4132268475858571</v>
+        <v>0.4132268475858573</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2343788485175964</v>
+        <v>0.2301351815490726</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.5148293170312671</v>
+        <v>0.5288091716641683</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.8087802397251338</v>
+        <v>0.7930785154813407</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0161842221666789</v>
+        <v>-0.01861366244361456</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01216971500460133</v>
+        <v>0.01089931276972382</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09546733993598477</v>
+        <v>0.09313048230832907</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09623424216552975</v>
+        <v>0.09660903177078856</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1938659568284765</v>
+        <v>0.2008676239913154</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3458746086116504</v>
+        <v>0.3550565136065389</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5630678517832443</v>
+        <v>0.5537511544990179</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.883390275562618</v>
+        <v>0.8875700788413259</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.188432803154382</v>
+        <v>1.184926606646489</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.07444154695961405</v>
+        <v>0.07262415096771264</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1028414010594904</v>
+        <v>0.103495055633828</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1792907467193571</v>
+        <v>0.1775095296707608</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2240790818511314</v>
+        <v>0.2209221978541288</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3264908322600242</v>
+        <v>0.3282032896464059</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4869576859090344</v>
+        <v>0.4812916641332032</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>17.96530573797689</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>38.89855477416702</v>
+        <v>38.898554774167</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>3.414836007925104</v>
@@ -1306,7 +1306,7 @@
         <v>14.25594487920555</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>29.25370278284184</v>
+        <v>29.25370278284185</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.168659367954117</v>
+        <v>6.82325034491426</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>11.49686273475986</v>
+        <v>11.56679547903301</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33.08748897093186</v>
+        <v>33.23983904950953</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.343090162941004</v>
+        <v>-2.371083732175649</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.007777472684619756</v>
+        <v>-0.1476099309177316</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>9.927894505138873</v>
+        <v>9.966189132968934</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>5.246708468669239</v>
+        <v>5.604584032734606</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.574437878113226</v>
+        <v>9.637609301154788</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>25.45973987960177</v>
+        <v>24.91119213368801</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>20.0813934941415</v>
+        <v>19.91388974352735</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>24.17056683498126</v>
+        <v>24.45817661676173</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44.31859963647059</v>
+        <v>44.34138560313309</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9.563165875686339</v>
+        <v>9.763134434248826</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>12.42357126135565</v>
+        <v>11.13047052730169</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.12645524779301</v>
+        <v>19.73061065610141</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15.41035214646915</v>
+        <v>15.04563083206963</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>18.9594097534392</v>
+        <v>18.41100780745608</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>33.70877830438986</v>
+        <v>33.37065927908098</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.5319377506713562</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>1.151753832232141</v>
+        <v>1.15175383223214</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.04580769806325333</v>
@@ -1411,7 +1411,7 @@
         <v>0.2772857678373237</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.5690001965465787</v>
+        <v>0.569000196546579</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1978890757357787</v>
+        <v>0.1837906561624558</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3144552750461228</v>
+        <v>0.3124310092719518</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8799162754104998</v>
+        <v>0.871369955137417</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03100310399054012</v>
+        <v>-0.02994501632504163</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.0005390482026107292</v>
+        <v>-0.001783311696533143</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1289184217550462</v>
+        <v>0.1308663270488352</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09977257091492842</v>
+        <v>0.1032164405818668</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1741281083257818</v>
+        <v>0.1819593431856838</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.468664878784488</v>
+        <v>0.4609075740903479</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.6834328394307354</v>
+        <v>0.6495486531834366</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.8041266931720029</v>
+        <v>0.8155224280314012</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.496588834837329</v>
+        <v>1.491888956085529</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1348613526172855</v>
+        <v>0.1359083876243032</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1785120399611608</v>
+        <v>0.1579566368147263</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2890194124845105</v>
+        <v>0.2816080084226674</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3111100437890618</v>
+        <v>0.3074372646045203</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3842676918251202</v>
+        <v>0.3785120261442012</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.7038758817515995</v>
+        <v>0.6950362759970944</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>18.7907093797456</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>31.56017907144825</v>
+        <v>31.56017907144824</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-0.6107096698613868</v>
@@ -1511,7 +1511,7 @@
         <v>3.279188409567868</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>6.576948040308384</v>
+        <v>6.576948040308395</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.513959392496192</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>7.197059289434336</v>
+        <v>7.160689942161894</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>16.4965306780015</v>
+        <v>16.30062137171377</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29.25491799126597</v>
+        <v>28.98782572492498</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.444466487957676</v>
+        <v>-2.420247929898173</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.622207769962171</v>
+        <v>1.544785019887865</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>4.987049646748821</v>
+        <v>5.076689306561256</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.891890322180324</v>
+        <v>2.781305434420339</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>9.330178408432808</v>
+        <v>9.527714929733069</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17.68210505172064</v>
+        <v>17.47561238497769</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.82780825891708</v>
+        <v>11.96311625149084</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>21.27028609720873</v>
+        <v>21.28189615933324</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>34.05010586021152</v>
+        <v>33.94480545652974</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.28578859501954</v>
+        <v>1.031173665882911</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.065201274059187</v>
+        <v>4.920534594563067</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.366486263621717</v>
+        <v>8.146897756894173</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>6.312193208097024</v>
+        <v>6.153238926499632</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>12.7650792560432</v>
+        <v>12.87902396643077</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.89139021240058</v>
+        <v>20.66434413093582</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.5483894776749803</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.9210546428319392</v>
+        <v>0.9210546428319388</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.007261171915394423</v>
@@ -1616,7 +1616,7 @@
         <v>0.03898865853924575</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07819812384849731</v>
+        <v>0.07819812384849743</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.07587462257497031</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.2040150909152107</v>
+        <v>0.1997020372493828</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.4644511588139122</v>
+        <v>0.4576706534007455</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.8187767475694182</v>
+        <v>0.8131706602969614</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.02886590091703571</v>
+        <v>-0.02838013260295058</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.01927650833845865</v>
+        <v>0.01821021633217653</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0584393034691089</v>
+        <v>0.05971463087837396</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04796097224208615</v>
+        <v>0.04564565372375496</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1539059821070385</v>
+        <v>0.1576971335283862</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.293501046191939</v>
+        <v>0.2905006717450217</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.3552928382934535</v>
+        <v>0.3606764623234823</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.6432347255322045</v>
+        <v>0.6471976909455364</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.034671672457091</v>
+        <v>1.034746088398205</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.01545605724060318</v>
+        <v>0.01232559839178983</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06095163046834891</v>
+        <v>0.05914437480565332</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1007922165312585</v>
+        <v>0.09819535101003701</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1081145166006969</v>
+        <v>0.1045241972107456</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2186072109302374</v>
+        <v>0.2218382824855351</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3578363228264414</v>
+        <v>0.3534548424883337</v>
       </c>
     </row>
     <row r="34">
